--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_type_conquer_info[战斗-征服模式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_type_conquer_info[战斗-征服模式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26475" windowHeight="12150"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="FightTypeConquerInfo" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>world_id</t>
+  </si>
+  <si>
+    <t>fight_scene_ids</t>
+  </si>
+  <si>
+    <t>fight_scene_boss_ids</t>
+  </si>
+  <si>
     <t>enemy_ids</t>
   </si>
   <si>
     <t>enemy_boss_ids</t>
   </si>
   <si>
+    <t>fight_num_min</t>
+  </si>
+  <si>
+    <t>fight_num_max</t>
+  </si>
+  <si>
+    <t>road_num_min</t>
+  </si>
+  <si>
+    <t>road_num_max</t>
+  </si>
+  <si>
+    <t>road_length_min</t>
+  </si>
+  <si>
+    <t>road_length_max</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
+    <t>level_add</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -53,19 +83,55 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
+    <t>世界ID</t>
+  </si>
+  <si>
+    <t>战斗场景列表</t>
+  </si>
+  <si>
+    <t>boss战斗场景列表</t>
+  </si>
+  <si>
     <t>敌人列表</t>
   </si>
   <si>
     <t>boss列表</t>
   </si>
   <si>
+    <t>关卡次数-最小</t>
+  </si>
+  <si>
+    <t>关卡次数-最大</t>
+  </si>
+  <si>
+    <t>道路数量-最小</t>
+  </si>
+  <si>
+    <t>道路数量-最大</t>
+  </si>
+  <si>
+    <t>道路长度-最小</t>
+  </si>
+  <si>
+    <t>道路长度-最大</t>
+  </si>
+  <si>
     <t>难度</t>
   </si>
   <si>
+    <t>难度数值加成</t>
+  </si>
+  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>1,</t>
   </si>
   <si>
     <t>101001,102001,</t>
@@ -1072,21 +1138,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="42.875" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,209 +1171,599 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1000001</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1000002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1000003</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1000004</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1000005</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1000006</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1000007</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1000008</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1000009</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1000010</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>24</v>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1"/>
@@ -1328,7 +1787,7 @@
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:G88">
+  <sortState ref="A4:Q88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_type_conquer_info[战斗-征服模式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_type_conquer_info[战斗-征服模式].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -134,10 +134,7 @@
     <t>1,</t>
   </si>
   <si>
-    <t>101001,102001,</t>
-  </si>
-  <si>
-    <t>103001,103002,</t>
+    <t>1010010001&amp;1010010001</t>
   </si>
   <si>
     <t>剑与魔法-难度1</t>
@@ -1141,14 +1138,15 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="12" width="16" customWidth="1"/>
+    <col min="5" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
     <col min="14" max="14" width="12.875" customWidth="1"/>
     <col min="15" max="15" width="42.875" customWidth="1"/>
@@ -1312,8 +1310,8 @@
       <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1340,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1359,8 +1357,8 @@
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1387,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1406,8 +1404,8 @@
       <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>36</v>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1434,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1453,8 +1451,8 @@
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1481,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1500,8 +1498,8 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1528,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1547,8 +1545,8 @@
       <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -1575,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1594,8 +1592,8 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
-        <v>36</v>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1622,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1641,8 +1639,8 @@
       <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1669,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1688,8 +1686,8 @@
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1716,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1735,8 +1733,8 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1763,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_type_conquer_info[战斗-征服模式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_type_conquer_info[战斗-征服模式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="FightTypeConquerInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,18 @@
     <t>enemy_boss_ids</t>
   </si>
   <si>
+    <t>enemy_num</t>
+  </si>
+  <si>
+    <t>attack_start_num</t>
+  </si>
+  <si>
+    <t>attack_wave_min</t>
+  </si>
+  <si>
+    <t>attack_wave_max</t>
+  </si>
+  <si>
     <t>fight_num_min</t>
   </si>
   <si>
@@ -104,6 +116,18 @@
     <t>boss列表</t>
   </si>
   <si>
+    <t>敌人数量</t>
+  </si>
+  <si>
+    <t>起始敌人数量</t>
+  </si>
+  <si>
+    <t>最小进攻次数</t>
+  </si>
+  <si>
+    <t>最大进攻次数</t>
+  </si>
+  <si>
     <t>关卡次数-最小</t>
   </si>
   <si>
@@ -131,7 +155,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1,</t>
+    <t>1&amp;1</t>
   </si>
   <si>
     <t>1010010001&amp;1010010001</t>
@@ -1135,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1146,14 +1170,16 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="42.875" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="42.875" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,102 +1225,138 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -1302,46 +1364,58 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>36</v>
+      <c r="S4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1000002</v>
       </c>
@@ -1349,46 +1423,58 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>9</v>
       </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
-        <v>37</v>
+      <c r="S5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1000003</v>
       </c>
@@ -1396,46 +1482,58 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>8</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
       <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="O6" t="s">
-        <v>38</v>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1000004</v>
       </c>
@@ -1443,46 +1541,58 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>7</v>
       </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
-        <v>39</v>
+      <c r="S7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1000005</v>
       </c>
@@ -1490,46 +1600,58 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="O8" t="s">
-        <v>40</v>
+      <c r="S8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1000006</v>
       </c>
@@ -1537,46 +1659,58 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9">
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>11</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>1</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
       </c>
       <c r="N9">
         <v>6</v>
       </c>
-      <c r="O9" t="s">
-        <v>41</v>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1000007</v>
       </c>
@@ -1584,46 +1718,58 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>4</v>
       </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
         <v>7</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>7</v>
       </c>
-      <c r="O10" t="s">
-        <v>42</v>
+      <c r="S10" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1000008</v>
       </c>
@@ -1631,46 +1777,58 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
         <v>8</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
-        <v>43</v>
+      <c r="S11" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1000009</v>
       </c>
@@ -1678,46 +1836,58 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>9</v>
       </c>
-      <c r="O12" t="s">
-        <v>44</v>
+      <c r="S12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1000010</v>
       </c>
@@ -1725,43 +1895,55 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
-        <v>45</v>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1"/>
@@ -1785,9 +1967,6 @@
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:Q88">
-    <sortCondition ref="A4"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
